--- a/out/test/Figori_algorithm_18.xlsx
+++ b/out/test/Figori_algorithm_18.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.76354999999999995</v>
+        <v>0.76539999999999997</v>
       </c>
       <c r="B1">
-        <v>0.85489999999999999</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="C1">
-        <v>0.69099999999999995</v>
+        <v>0.79730000000000001</v>
       </c>
       <c r="D1">
-        <v>0.82250000000000001</v>
+        <v>0.81210000000000004</v>
       </c>
       <c r="E1">
-        <v>0.84260000000000002</v>
+        <v>0.83279999999999998</v>
       </c>
       <c r="F1">
-        <v>0.82389999999999997</v>
+        <v>0.84970000000000001</v>
       </c>
       <c r="G1">
-        <v>0.74670000000000003</v>
+        <v>0.83350000000000002</v>
       </c>
       <c r="H1">
-        <v>0.81484999999999996</v>
+        <v>0.6905</v>
       </c>
       <c r="I1">
-        <v>0.79920000000000002</v>
+        <v>0.85475000000000001</v>
       </c>
       <c r="J1">
-        <v>0.83545000000000003</v>
+        <v>0.85645000000000004</v>
       </c>
       <c r="K1">
-        <v>0.69510000000000005</v>
+        <v>0.75370000000000004</v>
       </c>
       <c r="L1">
         <v>0.85604999999999998</v>
       </c>
       <c r="M1">
-        <v>0.82189999999999996</v>
+        <v>0.83</v>
       </c>
       <c r="N1">
-        <v>0.74939999999999996</v>
+        <v>0.83989999999999998</v>
       </c>
       <c r="O1">
-        <v>0.81899999999999995</v>
+        <v>0.85550000000000004</v>
       </c>
       <c r="P1">
-        <v>0.85775000000000001</v>
+        <v>0.85114999999999996</v>
       </c>
       <c r="Q1">
-        <v>0.81364999999999998</v>
+        <v>0.83584999999999998</v>
       </c>
       <c r="R1">
-        <v>0.84004999999999996</v>
+        <v>0.76424999999999998</v>
       </c>
       <c r="S1">
-        <v>0.69779999999999998</v>
+        <v>0.76485000000000003</v>
       </c>
       <c r="T1">
-        <v>0.83389999999999997</v>
+        <v>0.83009999999999995</v>
       </c>
       <c r="U1">
-        <v>0.83540000000000003</v>
+        <v>0.81174999999999997</v>
       </c>
       <c r="V1">
-        <v>0.85270000000000001</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="W1">
-        <v>0.83509999999999995</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="X1">
-        <v>0.85389999999999999</v>
+        <v>0.81605000000000005</v>
       </c>
       <c r="Y1">
-        <v>0.76624999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="Z1">
-        <v>0.82199999999999995</v>
+        <v>0.83009999999999995</v>
       </c>
       <c r="AA1">
-        <v>0.86460000000000004</v>
+        <v>0.75485000000000002</v>
       </c>
       <c r="AB1">
-        <v>0.82179999999999997</v>
+        <v>0.83925000000000005</v>
       </c>
       <c r="AC1">
-        <v>0.77105000000000001</v>
+        <v>0.80059999999999998</v>
       </c>
       <c r="AD1">
-        <v>0.85409999999999997</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="AE1">
-        <v>0.76649999999999996</v>
+        <v>0.83884999999999998</v>
       </c>
       <c r="AF1">
-        <v>0.6855</v>
+        <v>0.70020000000000004</v>
       </c>
       <c r="AG1">
-        <v>0.85670000000000002</v>
+        <v>0.84975000000000001</v>
       </c>
       <c r="AH1">
-        <v>0.86004999999999998</v>
+        <v>0.76595000000000002</v>
       </c>
       <c r="AI1">
-        <v>0.84445000000000003</v>
+        <v>0.74339999999999995</v>
       </c>
       <c r="AJ1">
-        <v>0.8</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="AK1">
-        <v>0.85135000000000005</v>
+        <v>0.85445000000000004</v>
       </c>
       <c r="AL1">
-        <v>0.8327</v>
+        <v>0.85229999999999995</v>
       </c>
       <c r="AM1">
-        <v>0.85814999999999997</v>
+        <v>0.82289999999999996</v>
       </c>
       <c r="AN1">
-        <v>0.85365000000000002</v>
+        <v>0.84125000000000005</v>
       </c>
       <c r="AO1">
-        <v>0.84875</v>
+        <v>0.69279999999999997</v>
       </c>
       <c r="AP1">
-        <v>0.82189999999999996</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="AQ1">
-        <v>0.83409999999999995</v>
+        <v>0.79169999999999996</v>
       </c>
       <c r="AR1">
-        <v>0.82540000000000002</v>
+        <v>0.8639</v>
       </c>
       <c r="AS1">
-        <v>0.82909999999999995</v>
+        <v>0.8226</v>
       </c>
       <c r="AT1">
-        <v>0.82379999999999998</v>
+        <v>0.76775000000000004</v>
       </c>
       <c r="AU1">
-        <v>0.85319999999999996</v>
+        <v>0.73709999999999998</v>
       </c>
       <c r="AV1">
-        <v>0.70209999999999995</v>
+        <v>0.84160000000000001</v>
       </c>
       <c r="AW1">
-        <v>0.83150000000000002</v>
+        <v>0.74819999999999998</v>
       </c>
       <c r="AX1">
-        <v>0.80879999999999996</v>
+        <v>0.81635000000000002</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="B2">
+        <v>0.6179</v>
+      </c>
+      <c r="C2">
+        <v>0.75424999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="E2">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="F2">
+        <v>0.89405000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="H2">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="I2">
+        <v>0.7964</v>
+      </c>
+      <c r="J2">
+        <v>0.86914999999999998</v>
+      </c>
+      <c r="K2">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="L2">
+        <v>0.87314999999999998</v>
+      </c>
+      <c r="M2">
+        <v>0.80269999999999997</v>
+      </c>
+      <c r="N2">
+        <v>0.80889999999999995</v>
+      </c>
+      <c r="O2">
+        <v>0.83384999999999998</v>
+      </c>
+      <c r="P2">
+        <v>0.82230000000000003</v>
+      </c>
+      <c r="Q2">
+        <v>0.83994999999999997</v>
+      </c>
+      <c r="R2">
+        <v>0.63880000000000003</v>
+      </c>
+      <c r="S2">
+        <v>0.75060000000000004</v>
+      </c>
+      <c r="T2">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="U2">
+        <v>0.73939999999999995</v>
+      </c>
+      <c r="V2">
+        <v>0.75575000000000003</v>
+      </c>
+      <c r="W2">
+        <v>0.8054</v>
+      </c>
+      <c r="X2">
+        <v>0.67425000000000002</v>
+      </c>
+      <c r="Y2">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="Z2">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="AA2">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="AB2">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="AC2">
         <v>0.81469999999999998</v>
       </c>
-      <c r="B2">
-        <v>0.85165000000000002</v>
-      </c>
-      <c r="C2">
-        <v>0.439</v>
-      </c>
-      <c r="D2">
-        <v>0.77249999999999996</v>
-      </c>
-      <c r="E2">
-        <v>0.80395000000000005</v>
-      </c>
-      <c r="F2">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="G2">
-        <v>0.64659999999999995</v>
-      </c>
-      <c r="H2">
-        <v>0.83225000000000005</v>
-      </c>
-      <c r="I2">
-        <v>0.77839999999999998</v>
-      </c>
-      <c r="J2">
-        <v>0.86355000000000004</v>
-      </c>
-      <c r="K2">
-        <v>0.67689999999999995</v>
-      </c>
-      <c r="L2">
-        <v>0.878</v>
-      </c>
-      <c r="M2">
-        <v>0.81789999999999996</v>
-      </c>
-      <c r="N2">
-        <v>0.71009999999999995</v>
-      </c>
-      <c r="O2">
-        <v>0.75519999999999998</v>
-      </c>
-      <c r="P2">
-        <v>0.79884999999999995</v>
-      </c>
-      <c r="Q2">
-        <v>0.73029999999999995</v>
-      </c>
-      <c r="R2">
-        <v>0.86085</v>
-      </c>
-      <c r="S2">
-        <v>0.65839999999999999</v>
-      </c>
-      <c r="T2">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="U2">
-        <v>0.81940000000000002</v>
-      </c>
-      <c r="V2">
-        <v>0.84079999999999999</v>
-      </c>
-      <c r="W2">
-        <v>0.79669999999999996</v>
-      </c>
-      <c r="X2">
-        <v>0.85555000000000003</v>
-      </c>
-      <c r="Y2">
-        <v>0.73560000000000003</v>
-      </c>
-      <c r="Z2">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="AA2">
-        <v>0.8014</v>
-      </c>
-      <c r="AB2">
-        <v>0.81879999999999997</v>
-      </c>
-      <c r="AC2">
-        <v>0.7218</v>
-      </c>
       <c r="AD2">
-        <v>0.82679999999999998</v>
+        <v>0.79910000000000003</v>
       </c>
       <c r="AE2">
-        <v>0.74850000000000005</v>
+        <v>0.84765000000000001</v>
       </c>
       <c r="AF2">
-        <v>0.75060000000000004</v>
+        <v>0.74509999999999998</v>
       </c>
       <c r="AG2">
-        <v>0.87239999999999995</v>
+        <v>0.84040000000000004</v>
       </c>
       <c r="AH2">
-        <v>0.88249999999999995</v>
+        <v>0.6905</v>
       </c>
       <c r="AI2">
-        <v>0.79035</v>
+        <v>0.75270000000000004</v>
       </c>
       <c r="AJ2">
-        <v>0.76459999999999995</v>
+        <v>0.84230000000000005</v>
       </c>
       <c r="AK2">
-        <v>0.87919999999999998</v>
+        <v>0.75009999999999999</v>
       </c>
       <c r="AL2">
-        <v>0.84419999999999995</v>
+        <v>0.85419999999999996</v>
       </c>
       <c r="AM2">
-        <v>0.86285000000000001</v>
+        <v>0.84119999999999995</v>
       </c>
       <c r="AN2">
-        <v>0.83235000000000003</v>
+        <v>0.68430000000000002</v>
       </c>
       <c r="AO2">
-        <v>0.81794999999999995</v>
+        <v>0.69310000000000005</v>
       </c>
       <c r="AP2">
-        <v>0.79405000000000003</v>
+        <v>0.79579999999999995</v>
       </c>
       <c r="AQ2">
-        <v>0.84250000000000003</v>
+        <v>0.80069999999999997</v>
       </c>
       <c r="AR2">
-        <v>0.87590000000000001</v>
+        <v>0.87265000000000004</v>
       </c>
       <c r="AS2">
-        <v>0.84230000000000005</v>
+        <v>0.72470000000000001</v>
       </c>
       <c r="AT2">
-        <v>0.87290000000000001</v>
+        <v>0.70920000000000005</v>
       </c>
       <c r="AU2">
-        <v>0.81610000000000005</v>
+        <v>0.75029999999999997</v>
       </c>
       <c r="AV2">
-        <v>0.61480000000000001</v>
+        <v>0.85814999999999997</v>
       </c>
       <c r="AW2">
-        <v>0.80869999999999997</v>
+        <v>0.74260000000000004</v>
       </c>
       <c r="AX2">
-        <v>0.79659999999999997</v>
+        <v>0.75739999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.78739999999999999</v>
+        <v>0.68579999999999997</v>
       </c>
       <c r="B3">
-        <v>0.70440000000000003</v>
+        <v>0.63129999999999997</v>
       </c>
       <c r="C3">
-        <v>0.44450000000000001</v>
+        <v>0.56440000000000001</v>
       </c>
       <c r="D3">
-        <v>0.82479999999999998</v>
+        <v>0.75719999999999998</v>
       </c>
       <c r="E3">
-        <v>0.78849999999999998</v>
+        <v>0.86065000000000003</v>
       </c>
       <c r="F3">
-        <v>0.75139999999999996</v>
+        <v>0.89424999999999999</v>
       </c>
       <c r="G3">
-        <v>0.51280000000000003</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="H3">
-        <v>0.64259999999999995</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="I3">
-        <v>0.85389999999999999</v>
+        <v>0.84519999999999995</v>
       </c>
       <c r="J3">
-        <v>0.92800000000000005</v>
+        <v>0.79610000000000003</v>
       </c>
       <c r="K3">
-        <v>0.50660000000000005</v>
+        <v>0.8</v>
       </c>
       <c r="L3">
-        <v>0.82550000000000001</v>
+        <v>0.81920000000000004</v>
       </c>
       <c r="M3">
-        <v>0.82479999999999998</v>
+        <v>0.80289999999999995</v>
       </c>
       <c r="N3">
-        <v>0.75109999999999999</v>
+        <v>0.84570000000000001</v>
       </c>
       <c r="O3">
-        <v>0.62390000000000001</v>
+        <v>0.74219999999999997</v>
       </c>
       <c r="P3">
-        <v>0.90329999999999999</v>
+        <v>0.76815</v>
       </c>
       <c r="Q3">
-        <v>0.74570000000000003</v>
+        <v>0.87770000000000004</v>
       </c>
       <c r="R3">
-        <v>0.8821</v>
+        <v>0.67559999999999998</v>
       </c>
       <c r="S3">
-        <v>0.51849999999999996</v>
+        <v>0.57169999999999999</v>
       </c>
       <c r="T3">
-        <v>0.69545000000000001</v>
+        <v>0.86450000000000005</v>
       </c>
       <c r="U3">
-        <v>0.78029999999999999</v>
+        <v>0.59450000000000003</v>
       </c>
       <c r="V3">
-        <v>0.89929999999999999</v>
+        <v>0.60570000000000002</v>
       </c>
       <c r="W3">
-        <v>0.79249999999999998</v>
+        <v>0.5958</v>
       </c>
       <c r="X3">
-        <v>0.87390000000000001</v>
+        <v>0.52029999999999998</v>
       </c>
       <c r="Y3">
-        <v>0.54820000000000002</v>
+        <v>0.84370000000000001</v>
       </c>
       <c r="Z3">
-        <v>0.78280000000000005</v>
+        <v>0.8236</v>
       </c>
       <c r="AA3">
-        <v>0.89870000000000005</v>
+        <v>0.61980000000000002</v>
       </c>
       <c r="AB3">
-        <v>0.84630000000000005</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.75349999999999995</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="AD3">
-        <v>0.82040000000000002</v>
+        <v>0.72770000000000001</v>
       </c>
       <c r="AE3">
-        <v>0.71730000000000005</v>
+        <v>0.72019999999999995</v>
       </c>
       <c r="AF3">
-        <v>0.71509999999999996</v>
+        <v>0.62070000000000003</v>
       </c>
       <c r="AG3">
-        <v>0.90069999999999995</v>
+        <v>0.82889999999999997</v>
       </c>
       <c r="AH3">
-        <v>0.88</v>
+        <v>0.57935000000000003</v>
       </c>
       <c r="AI3">
-        <v>0.68310000000000004</v>
+        <v>0.59289999999999998</v>
       </c>
       <c r="AJ3">
-        <v>0.63280000000000003</v>
+        <v>0.82440000000000002</v>
       </c>
       <c r="AK3">
-        <v>0.89639999999999997</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="AL3">
-        <v>0.88090000000000002</v>
+        <v>0.83194999999999997</v>
       </c>
       <c r="AM3">
-        <v>0.84430000000000005</v>
+        <v>0.77749999999999997</v>
       </c>
       <c r="AN3">
-        <v>0.82730000000000004</v>
+        <v>0.71135000000000004</v>
       </c>
       <c r="AO3">
-        <v>0.65180000000000005</v>
+        <v>0.66149999999999998</v>
       </c>
       <c r="AP3">
-        <v>0.72529999999999994</v>
+        <v>0.76185000000000003</v>
       </c>
       <c r="AQ3">
-        <v>0.84540000000000004</v>
+        <v>0.8448</v>
       </c>
       <c r="AR3">
-        <v>0.78869999999999996</v>
+        <v>0.69584999999999997</v>
       </c>
       <c r="AS3">
-        <v>0.82069999999999999</v>
+        <v>0.78210000000000002</v>
       </c>
       <c r="AT3">
-        <v>0.64810000000000001</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="AU3">
-        <v>0.7702</v>
+        <v>0.75539999999999996</v>
       </c>
       <c r="AV3">
-        <v>0.26569999999999999</v>
+        <v>0.77839999999999998</v>
       </c>
       <c r="AW3">
-        <v>0.8266</v>
+        <v>0.60235000000000005</v>
       </c>
       <c r="AX3">
-        <v>0.49964999999999998</v>
+        <v>0.52780000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.83440000000000003</v>
+        <v>0.39150000000000001</v>
       </c>
       <c r="B4">
-        <v>0.66449999999999998</v>
+        <v>0.4506</v>
       </c>
       <c r="C4">
-        <v>0.27050000000000002</v>
+        <v>0.36230000000000001</v>
       </c>
       <c r="D4">
-        <v>0.72419999999999995</v>
+        <v>0.74070000000000003</v>
       </c>
       <c r="E4">
-        <v>0.75139999999999996</v>
+        <v>0.68579999999999997</v>
       </c>
       <c r="F4">
-        <v>0.79179999999999995</v>
+        <v>0.83540000000000003</v>
       </c>
       <c r="G4">
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="H4">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.83109999999999995</v>
+      </c>
+      <c r="J4">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="K4">
+        <v>0.7994</v>
+      </c>
+      <c r="L4">
+        <v>0.67549999999999999</v>
+      </c>
+      <c r="M4">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.626</v>
+      </c>
+      <c r="P4">
+        <v>0.748</v>
+      </c>
+      <c r="Q4">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="R4">
+        <v>0.41810000000000003</v>
+      </c>
+      <c r="S4">
+        <v>0.48170000000000002</v>
+      </c>
+      <c r="T4">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="U4">
+        <v>0.51219999999999999</v>
+      </c>
+      <c r="V4">
+        <v>0.58179999999999998</v>
+      </c>
+      <c r="W4">
         <v>0.499</v>
       </c>
-      <c r="H4">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.88329999999999997</v>
-      </c>
-      <c r="J4">
-        <v>0.84160000000000001</v>
-      </c>
-      <c r="K4">
-        <v>0.56320000000000003</v>
-      </c>
-      <c r="L4">
-        <v>0.58250000000000002</v>
-      </c>
-      <c r="M4">
-        <v>0.87019999999999997</v>
-      </c>
-      <c r="N4">
-        <v>0.37930000000000003</v>
-      </c>
-      <c r="O4">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="P4">
-        <v>0.83145000000000002</v>
-      </c>
-      <c r="Q4">
-        <v>0.5978</v>
-      </c>
-      <c r="R4">
-        <v>0.85929999999999995</v>
-      </c>
-      <c r="S4">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="T4">
-        <v>0.58109999999999995</v>
-      </c>
-      <c r="U4">
-        <v>0.75960000000000005</v>
-      </c>
-      <c r="V4">
-        <v>0.89349999999999996</v>
-      </c>
-      <c r="W4">
-        <v>0.8</v>
-      </c>
       <c r="X4">
-        <v>0.75749999999999995</v>
+        <v>0.2722</v>
       </c>
       <c r="Y4">
-        <v>0.61229999999999996</v>
+        <v>0.78149999999999997</v>
       </c>
       <c r="Z4">
-        <v>0.78400000000000003</v>
+        <v>0.66469999999999996</v>
       </c>
       <c r="AA4">
-        <v>0.84389999999999998</v>
+        <v>0.50660000000000005</v>
       </c>
       <c r="AB4">
-        <v>0.70279999999999998</v>
+        <v>0.83260000000000001</v>
       </c>
       <c r="AC4">
-        <v>0.69</v>
+        <v>0.77280000000000004</v>
       </c>
       <c r="AD4">
-        <v>0.75009999999999999</v>
+        <v>0.75319999999999998</v>
       </c>
       <c r="AE4">
-        <v>0.80200000000000005</v>
+        <v>0.84909999999999997</v>
       </c>
       <c r="AF4">
-        <v>0.66679999999999995</v>
+        <v>0.46389999999999998</v>
       </c>
       <c r="AG4">
-        <v>0.83609999999999995</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="AH4">
-        <v>0.93879999999999997</v>
+        <v>0.4</v>
       </c>
       <c r="AI4">
-        <v>0.52880000000000005</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="AJ4">
-        <v>0.3029</v>
+        <v>0.73260000000000003</v>
       </c>
       <c r="AK4">
-        <v>0.57030000000000003</v>
+        <v>0.7107</v>
       </c>
       <c r="AL4">
-        <v>0.84409999999999996</v>
+        <v>0.53910000000000002</v>
       </c>
       <c r="AM4">
-        <v>0.75670000000000004</v>
+        <v>0.78169999999999995</v>
       </c>
       <c r="AN4">
-        <v>0.72375</v>
+        <v>0.66349999999999998</v>
       </c>
       <c r="AO4">
-        <v>0.84499999999999997</v>
+        <v>0.57630000000000003</v>
       </c>
       <c r="AP4">
-        <v>0.68069999999999997</v>
+        <v>0.77880000000000005</v>
       </c>
       <c r="AQ4">
-        <v>0.90159999999999996</v>
+        <v>0.86585000000000001</v>
       </c>
       <c r="AR4">
-        <v>0.71189999999999998</v>
+        <v>0.69655</v>
       </c>
       <c r="AS4">
-        <v>0.75090000000000001</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="AT4">
-        <v>0.70069999999999999</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="AU4">
-        <v>0.67774999999999996</v>
+        <v>0.87480000000000002</v>
       </c>
       <c r="AV4">
-        <v>0.1469</v>
+        <v>0.7671</v>
       </c>
       <c r="AW4">
-        <v>0.80020000000000002</v>
+        <v>0.52859999999999996</v>
       </c>
       <c r="AX4">
-        <v>0.3397</v>
+        <v>0.3705</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.92749999999999999</v>
+        <v>0.51729999999999998</v>
       </c>
       <c r="B5">
-        <v>0.69289999999999996</v>
+        <v>0.35970000000000002</v>
       </c>
       <c r="C5">
-        <v>0.38690000000000002</v>
+        <v>0.38650000000000001</v>
       </c>
       <c r="D5">
-        <v>0.60609999999999997</v>
+        <v>0.72650000000000003</v>
       </c>
       <c r="E5">
-        <v>0.52800000000000002</v>
+        <v>0.72789999999999999</v>
       </c>
       <c r="F5">
-        <v>0.67349999999999999</v>
+        <v>0.85409999999999997</v>
       </c>
       <c r="G5">
-        <v>0.28349999999999997</v>
+        <v>0.73009999999999997</v>
       </c>
       <c r="H5">
-        <v>0.1925</v>
+        <v>0.47820000000000001</v>
       </c>
       <c r="I5">
-        <v>0.75309999999999999</v>
+        <v>0.91339999999999999</v>
       </c>
       <c r="J5">
-        <v>0.86960000000000004</v>
+        <v>0.52839999999999998</v>
       </c>
       <c r="K5">
-        <v>0.34339999999999998</v>
+        <v>0.6331</v>
       </c>
       <c r="L5">
-        <v>0.50629999999999997</v>
+        <v>0.79020000000000001</v>
       </c>
       <c r="M5">
-        <v>0.96340000000000003</v>
+        <v>0.46860000000000002</v>
       </c>
       <c r="N5">
-        <v>0.30109999999999998</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="O5">
-        <v>0.60919999999999996</v>
+        <v>0.5927</v>
       </c>
       <c r="P5">
-        <v>0.90820000000000001</v>
+        <v>0.7893</v>
       </c>
       <c r="Q5">
-        <v>0.61960000000000004</v>
+        <v>0.83889999999999998</v>
       </c>
       <c r="R5">
-        <v>0.78080000000000005</v>
+        <v>0.3952</v>
       </c>
       <c r="S5">
-        <v>0.58140000000000003</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="T5">
-        <v>0.60329999999999995</v>
+        <v>0.82479999999999998</v>
       </c>
       <c r="U5">
-        <v>0.66679999999999995</v>
+        <v>0.5655</v>
       </c>
       <c r="V5">
-        <v>0.82479999999999998</v>
+        <v>0.42980000000000002</v>
       </c>
       <c r="W5">
-        <v>0.57540000000000002</v>
+        <v>0.22339999999999999</v>
       </c>
       <c r="X5">
-        <v>0.81610000000000005</v>
+        <v>0.1391</v>
       </c>
       <c r="Y5">
-        <v>0.41589999999999999</v>
+        <v>0.70440000000000003</v>
       </c>
       <c r="Z5">
-        <v>0.60250000000000004</v>
+        <v>0.63980000000000004</v>
       </c>
       <c r="AA5">
-        <v>0.79274999999999995</v>
+        <v>0.15939999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.53910000000000002</v>
+        <v>0.75649999999999995</v>
       </c>
       <c r="AC5">
-        <v>0.65620000000000001</v>
+        <v>0.81930000000000003</v>
       </c>
       <c r="AD5">
-        <v>0.5373</v>
+        <v>0.79359999999999997</v>
       </c>
       <c r="AE5">
-        <v>0.7177</v>
+        <v>0.58389999999999997</v>
       </c>
       <c r="AF5">
-        <v>0.78120000000000001</v>
+        <v>0.4743</v>
       </c>
       <c r="AG5">
-        <v>0.79590000000000005</v>
+        <v>0.78410000000000002</v>
       </c>
       <c r="AH5">
-        <v>0.92900000000000005</v>
+        <v>0.35570000000000002</v>
       </c>
       <c r="AI5">
-        <v>0.23300000000000001</v>
+        <v>0.43020000000000003</v>
       </c>
       <c r="AJ5">
-        <v>0.25459999999999999</v>
+        <v>0.71130000000000004</v>
       </c>
       <c r="AK5">
-        <v>0.79990000000000006</v>
+        <v>0.56789999999999996</v>
       </c>
       <c r="AL5">
-        <v>0.82809999999999995</v>
+        <v>0.4904</v>
       </c>
       <c r="AM5">
-        <v>0.79179999999999995</v>
+        <v>0.65980000000000005</v>
       </c>
       <c r="AN5">
-        <v>0.79730000000000001</v>
+        <v>0.76790000000000003</v>
       </c>
       <c r="AO5">
-        <v>0.72829999999999995</v>
+        <v>0.36940000000000001</v>
       </c>
       <c r="AP5">
-        <v>0.68920000000000003</v>
+        <v>0.56979999999999997</v>
       </c>
       <c r="AQ5">
-        <v>0.50219999999999998</v>
+        <v>0.82330000000000003</v>
       </c>
       <c r="AR5">
-        <v>0.60170000000000001</v>
+        <v>0.73219999999999996</v>
       </c>
       <c r="AS5">
-        <v>0.79110000000000003</v>
+        <v>0.73680000000000001</v>
       </c>
       <c r="AT5">
-        <v>0.84660000000000002</v>
+        <v>0.89949999999999997</v>
       </c>
       <c r="AU5">
-        <v>0.82750000000000001</v>
+        <v>0.85919999999999996</v>
       </c>
       <c r="AV5">
-        <v>0.14280000000000001</v>
+        <v>0.61219999999999997</v>
       </c>
       <c r="AW5">
-        <v>0.77080000000000004</v>
+        <v>0.42659999999999998</v>
       </c>
       <c r="AX5">
-        <v>0.69210000000000005</v>
+        <v>0.3201</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.56459999999999999</v>
+        <v>0.30809999999999998</v>
       </c>
       <c r="B6">
-        <v>0.77149999999999996</v>
+        <v>0.49640000000000001</v>
       </c>
       <c r="C6">
-        <v>0.42320000000000002</v>
+        <v>0.50729999999999997</v>
       </c>
       <c r="D6">
-        <v>0.57730000000000004</v>
+        <v>0.79310000000000003</v>
       </c>
       <c r="E6">
-        <v>0.44719999999999999</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="F6">
-        <v>0.75860000000000005</v>
+        <v>0.72740000000000005</v>
       </c>
       <c r="G6">
-        <v>0.41820000000000002</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="H6">
-        <v>0.28620000000000001</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="I6">
-        <v>0.44669999999999999</v>
+        <v>0.90980000000000005</v>
       </c>
       <c r="J6">
-        <v>0.74509999999999998</v>
+        <v>0.308</v>
       </c>
       <c r="K6">
-        <v>0.8548</v>
+        <v>0.6462</v>
       </c>
       <c r="L6">
-        <v>0.8175</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="M6">
-        <v>0.90580000000000005</v>
+        <v>0.65710000000000002</v>
       </c>
       <c r="N6">
-        <v>0.25940000000000002</v>
+        <v>0.72529999999999994</v>
       </c>
       <c r="O6">
-        <v>0.74490000000000001</v>
+        <v>0.59379999999999999</v>
       </c>
       <c r="P6">
-        <v>0.84609999999999996</v>
+        <v>0.87009999999999998</v>
       </c>
       <c r="Q6">
-        <v>0.31890000000000002</v>
+        <v>0.63149999999999995</v>
       </c>
       <c r="R6">
-        <v>0.63200000000000001</v>
+        <v>0.46050000000000002</v>
       </c>
       <c r="S6">
-        <v>0.47849999999999998</v>
+        <v>0.2591</v>
       </c>
       <c r="T6">
-        <v>0.45639999999999997</v>
+        <v>0.50090000000000001</v>
       </c>
       <c r="U6">
-        <v>0.4854</v>
+        <v>0.46110000000000001</v>
       </c>
       <c r="V6">
-        <v>0.69489999999999996</v>
+        <v>0.32269999999999999</v>
       </c>
       <c r="W6">
-        <v>0.45169999999999999</v>
+        <v>0.3246</v>
       </c>
       <c r="X6">
-        <v>0.88380000000000003</v>
+        <v>0.17449999999999999</v>
       </c>
       <c r="Y6">
-        <v>0.4486</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="Z6">
-        <v>0.53259999999999996</v>
+        <v>0.77629999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.83299999999999996</v>
+        <v>9.8299999999999998E-2</v>
       </c>
       <c r="AB6">
-        <v>0.48309999999999997</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="AC6">
-        <v>0.39489999999999997</v>
+        <v>0.63759999999999994</v>
       </c>
       <c r="AD6">
-        <v>0.63360000000000005</v>
+        <v>0.87180000000000002</v>
       </c>
       <c r="AE6">
-        <v>0.59760000000000002</v>
+        <v>0.57779999999999998</v>
       </c>
       <c r="AF6">
-        <v>0.58160000000000001</v>
+        <v>0.59450000000000003</v>
       </c>
       <c r="AG6">
-        <v>0.56420000000000003</v>
+        <v>0.48680000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.74070000000000003</v>
+        <v>0.25409999999999999</v>
       </c>
       <c r="AI6">
-        <v>0.1066</v>
+        <v>0.1123</v>
       </c>
       <c r="AJ6">
-        <v>0.4869</v>
+        <v>0.4914</v>
       </c>
       <c r="AK6">
-        <v>0.78520000000000001</v>
+        <v>0.78310000000000002</v>
       </c>
       <c r="AL6">
-        <v>0.85189999999999999</v>
+        <v>0.48459999999999998</v>
       </c>
       <c r="AM6">
-        <v>0.84130000000000005</v>
+        <v>0.53380000000000005</v>
       </c>
       <c r="AN6">
-        <v>0.80659999999999998</v>
+        <v>0.76559999999999995</v>
       </c>
       <c r="AO6">
-        <v>0.83550000000000002</v>
+        <v>0.19869999999999999</v>
       </c>
       <c r="AP6">
-        <v>0.4335</v>
+        <v>0.42359999999999998</v>
       </c>
       <c r="AQ6">
-        <v>0.39710000000000001</v>
+        <v>0.5302</v>
       </c>
       <c r="AR6">
-        <v>0.62250000000000005</v>
+        <v>0.69579999999999997</v>
       </c>
       <c r="AS6">
-        <v>0.7823</v>
+        <v>0.31</v>
       </c>
       <c r="AT6">
-        <v>0.90890000000000004</v>
+        <v>0.62839999999999996</v>
       </c>
       <c r="AU6">
-        <v>0.88749999999999996</v>
+        <v>0.66269999999999996</v>
       </c>
       <c r="AV6">
-        <v>0.25230000000000002</v>
+        <v>0.52449999999999997</v>
       </c>
       <c r="AW6">
-        <v>0.78100000000000003</v>
+        <v>0.37109999999999999</v>
       </c>
       <c r="AX6">
-        <v>0.68379999999999996</v>
+        <v>0.58069999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.4803</v>
+        <v>0.31140000000000001</v>
       </c>
       <c r="B7">
-        <v>0.41349999999999998</v>
+        <v>0.5585</v>
       </c>
       <c r="C7">
-        <v>0.54830000000000001</v>
+        <v>0.66479999999999995</v>
       </c>
       <c r="D7">
-        <v>0.43280000000000002</v>
+        <v>0.52839999999999998</v>
       </c>
       <c r="E7">
-        <v>0.45279999999999998</v>
+        <v>0.41749999999999998</v>
       </c>
       <c r="F7">
-        <v>0.72119999999999995</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="G7">
-        <v>0.12939999999999999</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="H7">
-        <v>0.56840000000000002</v>
+        <v>0.47260000000000002</v>
       </c>
       <c r="I7">
-        <v>0.218</v>
+        <v>0.86170000000000002</v>
       </c>
       <c r="J7">
-        <v>0.82389999999999997</v>
+        <v>0.23039999999999999</v>
       </c>
       <c r="K7">
-        <v>0.66449999999999998</v>
+        <v>0.31990000000000002</v>
       </c>
       <c r="L7">
-        <v>0.86860000000000004</v>
+        <v>0.85340000000000005</v>
       </c>
       <c r="M7">
-        <v>0.8155</v>
+        <v>0.60019999999999996</v>
       </c>
       <c r="N7">
-        <v>2.29E-2</v>
+        <v>0.71709999999999996</v>
       </c>
       <c r="O7">
-        <v>0.82499999999999996</v>
+        <v>0.44450000000000001</v>
       </c>
       <c r="P7">
-        <v>0.80779999999999996</v>
+        <v>0.88109999999999999</v>
       </c>
       <c r="Q7">
-        <v>0.1744</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="R7">
-        <v>0.53110000000000002</v>
+        <v>0.4854</v>
       </c>
       <c r="S7">
-        <v>0.41880000000000001</v>
+        <v>0.3261</v>
       </c>
       <c r="T7">
-        <v>0.4108</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="U7">
-        <v>0.60880000000000001</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="V7">
-        <v>0.53029999999999999</v>
+        <v>0.3372</v>
       </c>
       <c r="W7">
-        <v>0.4773</v>
+        <v>0.1182</v>
       </c>
       <c r="X7">
-        <v>0.87870000000000004</v>
+        <v>0.13739999999999999</v>
       </c>
       <c r="Y7">
-        <v>0.6794</v>
+        <v>0.3992</v>
       </c>
       <c r="Z7">
-        <v>0.21360000000000001</v>
+        <v>0.79120000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.89180000000000004</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="AB7">
-        <v>0.63</v>
+        <v>0.80020000000000002</v>
       </c>
       <c r="AC7">
-        <v>0.1207</v>
+        <v>0.34260000000000002</v>
       </c>
       <c r="AD7">
-        <v>0.755</v>
+        <v>0.85260000000000002</v>
       </c>
       <c r="AE7">
-        <v>0.80559999999999998</v>
+        <v>0.53159999999999996</v>
       </c>
       <c r="AF7">
-        <v>0.66149999999999998</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="AG7">
-        <v>0.60619999999999996</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.56100000000000005</v>
+        <v>0.44940000000000002</v>
       </c>
       <c r="AI7">
-        <v>0.12939999999999999</v>
+        <v>0.1525</v>
       </c>
       <c r="AJ7">
-        <v>0.49940000000000001</v>
+        <v>0.4783</v>
       </c>
       <c r="AK7">
-        <v>0.76970000000000005</v>
+        <v>0.54169999999999996</v>
       </c>
       <c r="AL7">
-        <v>0.44359999999999999</v>
+        <v>0.41980000000000001</v>
       </c>
       <c r="AM7">
-        <v>0.69350000000000001</v>
+        <v>0.22259999999999999</v>
       </c>
       <c r="AN7">
-        <v>0.56640000000000001</v>
+        <v>0.74219999999999997</v>
       </c>
       <c r="AO7">
-        <v>0.83150000000000002</v>
+        <v>0.23980000000000001</v>
       </c>
       <c r="AP7">
-        <v>0.54690000000000005</v>
+        <v>0.1338</v>
       </c>
       <c r="AQ7">
-        <v>0.2263</v>
+        <v>0.43619999999999998</v>
       </c>
       <c r="AR7">
-        <v>0.51239999999999997</v>
+        <v>0.72640000000000005</v>
       </c>
       <c r="AS7">
-        <v>0.81979999999999997</v>
+        <v>8.9899999999999994E-2</v>
       </c>
       <c r="AT7">
-        <v>0.71889999999999998</v>
+        <v>0.24210000000000001</v>
       </c>
       <c r="AU7">
-        <v>0.70430000000000004</v>
+        <v>0.72709999999999997</v>
       </c>
       <c r="AV7">
-        <v>0.2581</v>
+        <v>0.5766</v>
       </c>
       <c r="AW7">
-        <v>0.69240000000000002</v>
+        <v>0.20039999999999999</v>
       </c>
       <c r="AX7">
-        <v>0.57989999999999997</v>
+        <v>0.48870000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.70699999999999996</v>
+        <v>0.3589</v>
       </c>
       <c r="B8">
-        <v>0.41049999999999998</v>
+        <v>0.59419999999999995</v>
       </c>
       <c r="C8">
-        <v>0.44429999999999997</v>
+        <v>0.5897</v>
       </c>
       <c r="D8">
-        <v>0.1358</v>
+        <v>0.6623</v>
       </c>
       <c r="E8">
-        <v>0.58979999999999999</v>
+        <v>0.2404</v>
       </c>
       <c r="F8">
-        <v>0.79959999999999998</v>
+        <v>0.73440000000000005</v>
       </c>
       <c r="G8">
-        <v>2.9499999999999998E-2</v>
+        <v>0.66659999999999997</v>
       </c>
       <c r="H8">
-        <v>0.3569</v>
+        <v>0.4244</v>
       </c>
       <c r="I8">
-        <v>0.27939999999999998</v>
+        <v>0.70620000000000005</v>
       </c>
       <c r="J8">
-        <v>0.63800000000000001</v>
+        <v>0.3871</v>
       </c>
       <c r="K8">
-        <v>0.19719999999999999</v>
+        <v>0.2772</v>
       </c>
       <c r="L8">
-        <v>0.29930000000000001</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="M8">
-        <v>0.4723</v>
+        <v>0.70220000000000005</v>
       </c>
       <c r="N8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.47360000000000002</v>
       </c>
       <c r="O8">
-        <v>0.82630000000000003</v>
+        <v>7.6700000000000004E-2</v>
       </c>
       <c r="P8">
-        <v>0.4783</v>
+        <v>0.8004</v>
       </c>
       <c r="Q8">
-        <v>0.11169999999999999</v>
+        <v>0.30790000000000001</v>
       </c>
       <c r="R8">
-        <v>0.66110000000000002</v>
+        <v>0.47739999999999999</v>
       </c>
       <c r="S8">
-        <v>0.2205</v>
+        <v>0.1045</v>
       </c>
       <c r="T8">
-        <v>0.29930000000000001</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="U8">
-        <v>0.59019999999999995</v>
+        <v>0.58460000000000001</v>
       </c>
       <c r="V8">
-        <v>0.69869999999999999</v>
+        <v>0.2868</v>
       </c>
       <c r="W8">
-        <v>0.49640000000000001</v>
+        <v>0.15570000000000001</v>
       </c>
       <c r="X8">
-        <v>0.79259999999999997</v>
+        <v>0.1663</v>
       </c>
       <c r="Y8">
-        <v>0.65190000000000003</v>
+        <v>0.46779999999999999</v>
       </c>
       <c r="Z8">
-        <v>0.32</v>
+        <v>0.77480000000000004</v>
       </c>
       <c r="AA8">
-        <v>0.72719999999999996</v>
+        <v>0.14249999999999999</v>
       </c>
       <c r="AB8">
-        <v>0.85629999999999995</v>
+        <v>0.82320000000000004</v>
       </c>
       <c r="AC8">
-        <v>0.37890000000000001</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="AD8">
-        <v>0.58250000000000002</v>
+        <v>0.51459999999999995</v>
       </c>
       <c r="AE8">
-        <v>0.92179999999999995</v>
+        <v>0.36870000000000003</v>
       </c>
       <c r="AF8">
-        <v>0.71879999999999999</v>
+        <v>0.9042</v>
       </c>
       <c r="AG8">
-        <v>0.14949999999999999</v>
+        <v>0.20830000000000001</v>
       </c>
       <c r="AH8">
-        <v>0.59260000000000002</v>
+        <v>0.4415</v>
       </c>
       <c r="AI8">
-        <v>0.17299999999999999</v>
+        <v>0.61119999999999997</v>
       </c>
       <c r="AJ8">
-        <v>0.70150000000000001</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="AK8">
-        <v>0.6149</v>
+        <v>0.4703</v>
       </c>
       <c r="AL8">
-        <v>0.44019999999999998</v>
+        <v>0.49580000000000002</v>
       </c>
       <c r="AM8">
-        <v>0.83460000000000001</v>
+        <v>0.10929999999999999</v>
       </c>
       <c r="AN8">
-        <v>0.56830000000000003</v>
+        <v>0.54490000000000005</v>
       </c>
       <c r="AO8">
-        <v>0.86670000000000003</v>
+        <v>0.51039999999999996</v>
       </c>
       <c r="AP8">
-        <v>0.53620000000000001</v>
+        <v>0.23980000000000001</v>
       </c>
       <c r="AQ8">
-        <v>0.35520000000000002</v>
+        <v>0.73250000000000004</v>
       </c>
       <c r="AR8">
-        <v>0.51839999999999997</v>
+        <v>0.83879999999999999</v>
       </c>
       <c r="AS8">
-        <v>0.63600000000000001</v>
+        <v>0.62080000000000002</v>
       </c>
       <c r="AT8">
-        <v>0.8206</v>
+        <v>0.4209</v>
       </c>
       <c r="AU8">
-        <v>0.5635</v>
+        <v>0.78610000000000002</v>
       </c>
       <c r="AV8">
-        <v>0.15690000000000001</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="AW8">
-        <v>0.24210000000000001</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="AX8">
-        <v>0.36209999999999998</v>
+        <v>0.30880000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.45119999999999999</v>
+        <v>0.32569999999999999</v>
       </c>
       <c r="B9">
-        <v>0.76890000000000003</v>
+        <v>0.5181</v>
       </c>
       <c r="C9">
-        <v>0.51200000000000001</v>
+        <v>0.35420000000000001</v>
       </c>
       <c r="D9">
-        <v>0.16589999999999999</v>
+        <v>0.78569999999999995</v>
       </c>
       <c r="E9">
-        <v>0.52459999999999996</v>
+        <v>0.28860000000000002</v>
       </c>
       <c r="F9">
-        <v>0.59360000000000002</v>
+        <v>0.56659999999999999</v>
       </c>
       <c r="G9">
-        <v>0.115</v>
+        <v>0.74650000000000005</v>
       </c>
       <c r="H9">
-        <v>0.2487</v>
+        <v>0.65290000000000004</v>
       </c>
       <c r="I9">
-        <v>0.23039999999999999</v>
+        <v>0.42149999999999999</v>
       </c>
       <c r="J9">
-        <v>0.72860000000000003</v>
+        <v>0.45669999999999999</v>
       </c>
       <c r="K9">
-        <v>0.28100000000000003</v>
+        <v>0.23139999999999999</v>
       </c>
       <c r="L9">
-        <v>0.29730000000000001</v>
+        <v>0.77090000000000003</v>
       </c>
       <c r="M9">
-        <v>0.53310000000000002</v>
+        <v>0.67010000000000003</v>
       </c>
       <c r="N9">
-        <v>1.2800000000000001E-2</v>
+        <v>0.42880000000000001</v>
       </c>
       <c r="O9">
-        <v>0.86839999999999995</v>
+        <v>0.1676</v>
       </c>
       <c r="P9">
-        <v>0.13059999999999999</v>
+        <v>0.50529999999999997</v>
       </c>
       <c r="Q9">
-        <v>6.4000000000000001E-2</v>
+        <v>0.35620000000000002</v>
       </c>
       <c r="R9">
-        <v>0.42159999999999997</v>
+        <v>0.1166</v>
       </c>
       <c r="S9">
-        <v>0.28079999999999999</v>
+        <v>0.14169999999999999</v>
       </c>
       <c r="T9">
-        <v>0.432</v>
+        <v>0.74029999999999996</v>
       </c>
       <c r="U9">
-        <v>0.55689999999999995</v>
+        <v>0.5837</v>
       </c>
       <c r="V9">
-        <v>0.36630000000000001</v>
+        <v>0.2114</v>
       </c>
       <c r="W9">
-        <v>0.57369999999999999</v>
+        <v>0.21829999999999999</v>
       </c>
       <c r="X9">
-        <v>0.58940000000000003</v>
+        <v>0.19989999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.7944</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="Z9">
-        <v>0.2286</v>
+        <v>0.88980000000000004</v>
       </c>
       <c r="AA9">
-        <v>0.6179</v>
+        <v>0.4506</v>
       </c>
       <c r="AB9">
-        <v>0.58450000000000002</v>
+        <v>0.76819999999999999</v>
       </c>
       <c r="AC9">
-        <v>9.0399999999999994E-2</v>
+        <v>0.48420000000000002</v>
       </c>
       <c r="AD9">
-        <v>0.66549999999999998</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="AE9">
-        <v>0.8226</v>
+        <v>0.15759999999999999</v>
       </c>
       <c r="AF9">
-        <v>0.87180000000000002</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>7.7399999999999997E-2</v>
       </c>
       <c r="AH9">
-        <v>0.43030000000000002</v>
+        <v>0.35289999999999999</v>
       </c>
       <c r="AI9">
-        <v>0.23230000000000001</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="AJ9">
-        <v>0.43880000000000002</v>
+        <v>0.45429999999999998</v>
       </c>
       <c r="AK9">
-        <v>0.5585</v>
+        <v>0.4768</v>
       </c>
       <c r="AL9">
-        <v>0.41110000000000002</v>
+        <v>0.45069999999999999</v>
       </c>
       <c r="AM9">
-        <v>0.98919999999999997</v>
+        <v>0.1792</v>
       </c>
       <c r="AN9">
-        <v>0.29959999999999998</v>
+        <v>0.58909999999999996</v>
       </c>
       <c r="AO9">
-        <v>0.66339999999999999</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="AP9">
-        <v>0.57330000000000003</v>
+        <v>0.42109999999999997</v>
       </c>
       <c r="AQ9">
-        <v>0.51370000000000005</v>
+        <v>0.61509999999999998</v>
       </c>
       <c r="AR9">
-        <v>0.5373</v>
+        <v>0.73729999999999996</v>
       </c>
       <c r="AS9">
-        <v>0.27500000000000002</v>
+        <v>0.61970000000000003</v>
       </c>
       <c r="AT9">
-        <v>0.54800000000000004</v>
+        <v>0.40739999999999998</v>
       </c>
       <c r="AU9">
-        <v>0.60970000000000002</v>
+        <v>0.55569999999999997</v>
       </c>
       <c r="AV9">
-        <v>8.8000000000000005E-3</v>
+        <v>0.72250000000000003</v>
       </c>
       <c r="AW9">
-        <v>0.23280000000000001</v>
+        <v>0.2606</v>
       </c>
       <c r="AX9">
-        <v>0.38140000000000002</v>
+        <v>0.40629999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.70709999999999995</v>
+        <v>0.44550000000000001</v>
       </c>
       <c r="B10">
-        <v>0.85240000000000005</v>
+        <v>0.62480000000000002</v>
       </c>
       <c r="C10">
-        <v>0.43569999999999998</v>
+        <v>0.58520000000000005</v>
       </c>
       <c r="D10">
-        <v>0.25109999999999999</v>
+        <v>0.50209999999999999</v>
       </c>
       <c r="E10">
-        <v>0.45469999999999999</v>
+        <v>0.28189999999999998</v>
       </c>
       <c r="F10">
-        <v>0.62419999999999998</v>
+        <v>0.29430000000000001</v>
       </c>
       <c r="G10">
-        <v>0.21510000000000001</v>
+        <v>0.501</v>
       </c>
       <c r="H10">
-        <v>0.18029999999999999</v>
+        <v>0.75570000000000004</v>
       </c>
       <c r="I10">
-        <v>0.51449999999999996</v>
+        <v>0.52080000000000004</v>
       </c>
       <c r="J10">
-        <v>0.66100000000000003</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="K10">
-        <v>0.58140000000000003</v>
+        <v>0.26469999999999999</v>
       </c>
       <c r="L10">
-        <v>0.30299999999999999</v>
+        <v>0.88249999999999995</v>
       </c>
       <c r="M10">
-        <v>0.87150000000000005</v>
+        <v>0.81010000000000004</v>
       </c>
       <c r="N10">
-        <v>3.8199999999999998E-2</v>
+        <v>0.43890000000000001</v>
       </c>
       <c r="O10">
-        <v>0.68679999999999997</v>
+        <v>0.21310000000000001</v>
       </c>
       <c r="P10">
-        <v>9.5799999999999996E-2</v>
+        <v>0.62570000000000003</v>
       </c>
       <c r="Q10">
-        <v>8.2699999999999996E-2</v>
+        <v>0.27310000000000001</v>
       </c>
       <c r="R10">
-        <v>0.40579999999999999</v>
+        <v>0.15920000000000001</v>
       </c>
       <c r="S10">
-        <v>0.18579999999999999</v>
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="T10">
-        <v>0.3075</v>
+        <v>0.82450000000000001</v>
       </c>
       <c r="U10">
-        <v>0.51390000000000002</v>
+        <v>0.52669999999999995</v>
       </c>
       <c r="V10">
-        <v>0.81340000000000001</v>
+        <v>0.17749999999999999</v>
       </c>
       <c r="W10">
-        <v>0.4839</v>
+        <v>0.17860000000000001</v>
       </c>
       <c r="X10">
-        <v>0.54320000000000002</v>
+        <v>0.2296</v>
       </c>
       <c r="Y10">
-        <v>0.68310000000000004</v>
+        <v>0.15939999999999999</v>
       </c>
       <c r="Z10">
-        <v>0.51619999999999999</v>
+        <v>0.74570000000000003</v>
       </c>
       <c r="AA10">
-        <v>0.47160000000000002</v>
+        <v>0.39479999999999998</v>
       </c>
       <c r="AB10">
-        <v>0.63939999999999997</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.21740000000000001</v>
+        <v>0.36270000000000002</v>
       </c>
       <c r="AD10">
-        <v>0.88580000000000003</v>
+        <v>0.59619999999999995</v>
       </c>
       <c r="AE10">
-        <v>0.67669999999999997</v>
+        <v>0.1164</v>
       </c>
       <c r="AF10">
-        <v>0.7923</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="AG10">
-        <v>1.2200000000000001E-2</v>
+        <v>0.1731</v>
       </c>
       <c r="AH10">
-        <v>0.62260000000000004</v>
+        <v>0.52259999999999995</v>
       </c>
       <c r="AI10">
-        <v>0.30499999999999999</v>
+        <v>0.3886</v>
       </c>
       <c r="AJ10">
-        <v>0.45219999999999999</v>
+        <v>0.52759999999999996</v>
       </c>
       <c r="AK10">
-        <v>0.62350000000000005</v>
+        <v>0.45879999999999999</v>
       </c>
       <c r="AL10">
-        <v>0.41120000000000001</v>
+        <v>0.57789999999999997</v>
       </c>
       <c r="AM10">
-        <v>0.91469999999999996</v>
+        <v>0.28320000000000001</v>
       </c>
       <c r="AN10">
-        <v>0.39860000000000001</v>
+        <v>0.49780000000000002</v>
       </c>
       <c r="AO10">
-        <v>0.5504</v>
+        <v>0.65110000000000001</v>
       </c>
       <c r="AP10">
-        <v>0.51480000000000004</v>
+        <v>0.43719999999999998</v>
       </c>
       <c r="AQ10">
-        <v>0.60770000000000002</v>
+        <v>0.43219999999999997</v>
       </c>
       <c r="AR10">
-        <v>0.52110000000000001</v>
+        <v>0.71240000000000003</v>
       </c>
       <c r="AS10">
-        <v>0.27579999999999999</v>
+        <v>0.56330000000000002</v>
       </c>
       <c r="AT10">
-        <v>0.36409999999999998</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="AU10">
-        <v>0.64670000000000005</v>
+        <v>0.14460000000000001</v>
       </c>
       <c r="AV10">
-        <v>5.7999999999999996E-3</v>
+        <v>0.60919999999999996</v>
       </c>
       <c r="AW10">
-        <v>0.19320000000000001</v>
+        <v>0.12139999999999999</v>
       </c>
       <c r="AX10">
-        <v>0.2802</v>
+        <v>0.72060000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.81379999999999997</v>
+        <v>0.54059999999999997</v>
       </c>
       <c r="B11">
-        <v>0.79679999999999995</v>
+        <v>0.54779999999999995</v>
       </c>
       <c r="C11">
-        <v>0.80969999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="D11">
-        <v>0.22489999999999999</v>
+        <v>0.70950000000000002</v>
       </c>
       <c r="E11">
-        <v>0.58840000000000003</v>
+        <v>0.34329999999999999</v>
       </c>
       <c r="F11">
-        <v>0.51939999999999997</v>
+        <v>0.18540000000000001</v>
       </c>
       <c r="G11">
-        <v>0.1487</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="H11">
-        <v>0.33050000000000002</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="I11">
-        <v>0.61619999999999997</v>
+        <v>0.19819999999999999</v>
       </c>
       <c r="J11">
-        <v>0.60840000000000005</v>
+        <v>0.45169999999999999</v>
       </c>
       <c r="K11">
-        <v>0.5161</v>
+        <v>0.2445</v>
       </c>
       <c r="L11">
-        <v>0.4083</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="M11">
-        <v>0.69840000000000002</v>
+        <v>0.72340000000000004</v>
       </c>
       <c r="N11">
-        <v>2.63E-2</v>
+        <v>0.48709999999999998</v>
       </c>
       <c r="O11">
-        <v>0.52310000000000001</v>
+        <v>0.14860000000000001</v>
       </c>
       <c r="P11">
-        <v>0.14149999999999999</v>
+        <v>0.45789999999999997</v>
       </c>
       <c r="Q11">
-        <v>0.16400000000000001</v>
+        <v>0.10059999999999999</v>
       </c>
       <c r="R11">
-        <v>0.50249999999999995</v>
+        <v>0.2419</v>
       </c>
       <c r="S11">
-        <v>0.42480000000000001</v>
+        <v>0.22850000000000001</v>
       </c>
       <c r="T11">
-        <v>0.1321</v>
+        <v>0.89480000000000004</v>
       </c>
       <c r="U11">
-        <v>0.67159999999999997</v>
+        <v>0.68520000000000003</v>
       </c>
       <c r="V11">
-        <v>0.77839999999999998</v>
+        <v>0.31990000000000002</v>
       </c>
       <c r="W11">
-        <v>0.65029999999999999</v>
+        <v>0.15620000000000001</v>
       </c>
       <c r="X11">
-        <v>0.49320000000000003</v>
+        <v>0.26919999999999999</v>
       </c>
       <c r="Y11">
-        <v>0.4148</v>
+        <v>0.17169999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.67979999999999996</v>
+        <v>0.4995</v>
       </c>
       <c r="AA11">
-        <v>0.246</v>
+        <v>0.53569999999999995</v>
       </c>
       <c r="AB11">
-        <v>0.70689999999999997</v>
+        <v>0.73050000000000004</v>
       </c>
       <c r="AC11">
-        <v>0.26100000000000001</v>
+        <v>0.4395</v>
       </c>
       <c r="AD11">
-        <v>0.83179999999999998</v>
+        <v>0.26950000000000002</v>
       </c>
       <c r="AE11">
-        <v>0.71130000000000004</v>
+        <v>0.33239999999999997</v>
       </c>
       <c r="AF11">
-        <v>0.83240000000000003</v>
+        <v>0.3664</v>
       </c>
       <c r="AG11">
-        <v>3.2899999999999999E-2</v>
+        <v>0.39019999999999999</v>
       </c>
       <c r="AH11">
-        <v>0.67320000000000002</v>
+        <v>0.3826</v>
       </c>
       <c r="AI11">
-        <v>0.69589999999999996</v>
+        <v>0.5343</v>
       </c>
       <c r="AJ11">
-        <v>0.2331</v>
+        <v>0.65680000000000005</v>
       </c>
       <c r="AK11">
-        <v>0.75919999999999999</v>
+        <v>0.54669999999999996</v>
       </c>
       <c r="AL11">
-        <v>0.1421</v>
+        <v>0.66869999999999996</v>
       </c>
       <c r="AM11">
-        <v>0.80810000000000004</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="AN11">
-        <v>0.55659999999999998</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="AO11">
-        <v>0.86</v>
+        <v>0.61519999999999997</v>
       </c>
       <c r="AP11">
-        <v>0.65500000000000003</v>
+        <v>0.5907</v>
       </c>
       <c r="AQ11">
-        <v>0.67369999999999997</v>
+        <v>0.30409999999999998</v>
       </c>
       <c r="AR11">
-        <v>0.65569999999999995</v>
+        <v>0.80369999999999997</v>
       </c>
       <c r="AS11">
-        <v>0.17019999999999999</v>
+        <v>0.55059999999999998</v>
       </c>
       <c r="AT11">
-        <v>0.28620000000000001</v>
+        <v>2.64E-2</v>
       </c>
       <c r="AU11">
-        <v>0.24379999999999999</v>
+        <v>0.14829999999999999</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>0.59040000000000004</v>
       </c>
       <c r="AW11">
-        <v>0.2555</v>
+        <v>0.19969999999999999</v>
       </c>
       <c r="AX11">
-        <v>0.2878</v>
+        <v>0.78500000000000003</v>
       </c>
     </row>
   </sheetData>
